--- a/EchoNIT_Gannt_Chart.xlsx
+++ b/EchoNIT_Gannt_Chart.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7180"/>
   </bookViews>
   <sheets>
     <sheet name="intranit" sheetId="1" r:id="rId1"/>
@@ -85,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +234,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -637,6 +655,8 @@
     <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -684,6 +704,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -730,7 +758,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,9 +790,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -796,6 +825,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -971,31 +1001,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,58 +1066,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2"/>
+      <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1095,6 +1128,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>